--- a/biology/Botanique/Salix_pyrenaica/Salix_pyrenaica.xlsx
+++ b/biology/Botanique/Salix_pyrenaica/Salix_pyrenaica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix pyrenaica, le saule des Pyrénées, est une espèce de sous-arbrisseau de la famille des Salicaceae, se rencontrant en Europe.
 </t>
@@ -511,13 +523,15 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix ciliata DC. in Lam. &amp; DC.
 Salix ovata Ser.
 Salix pyrenaica f. grandifolia Sennen
 Salix pyrenaica f. parvifolia Goerz
-Salix pyrenaica var. nitidula Font Quer[1].</t>
+Salix pyrenaica var. nitidula Font Quer.</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix pyrenaica est un buisson bas très branchu, rampant, généralement de moins de 50 cm de haut. Les jeunes rameaux, verts ou rouges, sont glabres. Les feuilles de 2 à 5 × 1 à 1,5 cm sont elliptiques, oblongo-ovales ou oblongo-lancéolées.
 L'espèce se rencontre dans des zones souvent enneigées, sur substrat caillouteux, à une altitude de 1 200 à 2 500 mètres, dans les Pyrénées. Elle pousse dans toutes les provinces pyrénéennes mais est plus présente à l'ouest.
